--- a/data/trans_orig/P1407-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1407-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{45A23417-521A-418B-9D6B-1CBCCF769ABF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{07A16463-88E2-4325-97AD-312E8D43CAFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8F9206CA-3BA4-4D2C-9152-D0D297A8AA6D}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{89A1C5FA-1015-498D-88C4-562F365BC64B}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="170">
   <si>
     <t>Población con diagnóstico de estreñimiento crónico en 2012 (Tasa respuesta: 99,95%)</t>
   </si>
@@ -94,249 +94,249 @@
     <t>0,64%</t>
   </si>
   <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>99,95%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de estreñimiento crónico en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
     <t>0,22%</t>
   </si>
   <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>99,95%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de estreñimiento crónico en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
     <t>1,27%</t>
   </si>
   <si>
@@ -388,9 +388,6 @@
     <t>0,53%</t>
   </si>
   <si>
-    <t>0,65%</t>
-  </si>
-  <si>
     <t>0,36%</t>
   </si>
   <si>
@@ -409,9 +406,6 @@
     <t>99,91%</t>
   </si>
   <si>
-    <t>99,35%</t>
-  </si>
-  <si>
     <t>98,89%</t>
   </si>
   <si>
@@ -427,18 +421,12 @@
     <t>99,75%</t>
   </si>
   <si>
-    <t>0,38%</t>
-  </si>
-  <si>
     <t>0,19%</t>
   </si>
   <si>
     <t>0,39%</t>
   </si>
   <si>
-    <t>1,42%</t>
-  </si>
-  <si>
     <t>1,61%</t>
   </si>
   <si>
@@ -454,9 +442,6 @@
     <t>99,61%</t>
   </si>
   <si>
-    <t>98,58%</t>
-  </si>
-  <si>
     <t>98,39%</t>
   </si>
   <si>
@@ -467,9 +452,6 @@
   </si>
   <si>
     <t>98,1%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
   </si>
   <si>
     <t>0,49%</t>
@@ -977,7 +959,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3A34301-F2C9-4FA0-9BC9-D398DA30EFC7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64B2F5ED-DE87-4C2E-8228-F6F77E3B5F94}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1436,7 +1418,7 @@
         <v>3469</v>
       </c>
       <c r="N10" s="7">
-        <v>3695719</v>
+        <v>3695718</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>55</v>
@@ -1487,7 +1469,7 @@
         <v>3489</v>
       </c>
       <c r="N11" s="7">
-        <v>3718550</v>
+        <v>3718549</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>36</v>
@@ -1534,22 +1516,22 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="M12" s="7">
+        <v>0</v>
+      </c>
+      <c r="N12" s="7">
+        <v>0</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="M12" s="7">
-        <v>0</v>
-      </c>
-      <c r="N12" s="7">
-        <v>0</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1564,13 +1546,13 @@
         <v>986</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="H13" s="7">
         <v>6</v>
@@ -1579,13 +1561,13 @@
         <v>7016</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="M13" s="7">
         <v>7</v>
@@ -1594,13 +1576,13 @@
         <v>8001</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1615,13 +1597,13 @@
         <v>480195</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H14" s="7">
         <v>406</v>
@@ -1630,13 +1612,13 @@
         <v>451615</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M14" s="7">
         <v>843</v>
@@ -1645,13 +1627,13 @@
         <v>931811</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1755,7 +1737,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1770,13 +1752,13 @@
         <v>10293</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H17" s="7">
         <v>66</v>
@@ -1785,13 +1767,13 @@
         <v>71617</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M17" s="7">
         <v>76</v>
@@ -1800,13 +1782,13 @@
         <v>81910</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1821,10 +1803,10 @@
         <v>3409489</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>49</v>
@@ -1836,28 +1818,28 @@
         <v>3478220</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="M18" s="7">
         <v>6417</v>
       </c>
       <c r="N18" s="7">
-        <v>6887708</v>
+        <v>6887709</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1899,7 +1881,7 @@
         <v>6493</v>
       </c>
       <c r="N19" s="7">
-        <v>6969618</v>
+        <v>6969619</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>36</v>
@@ -1913,7 +1895,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1932,7 +1914,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4D9191C-1A79-49EC-88B4-4E9F3620F4B0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{809A943B-C5B8-4ACF-9AB8-3FF2A11AA23C}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1949,7 +1931,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2062,22 +2044,22 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7">
-        <v>0</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>18</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -2313,7 +2295,7 @@
         <v>4875</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>15</v>
@@ -2328,13 +2310,13 @@
         <v>12826</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="M9" s="7">
         <v>17</v>
@@ -2346,10 +2328,10 @@
         <v>59</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2364,13 +2346,13 @@
         <v>2071510</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="H10" s="7">
         <v>1896</v>
@@ -2379,13 +2361,13 @@
         <v>1975474</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="M10" s="7">
         <v>3843</v>
@@ -2394,13 +2376,13 @@
         <v>4046984</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2474,7 +2456,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>129</v>
+        <v>47</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -2489,7 +2471,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -2504,7 +2486,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2519,13 +2501,13 @@
         <v>2127</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>132</v>
+        <v>19</v>
       </c>
       <c r="H13" s="7">
         <v>7</v>
@@ -2534,13 +2516,13 @@
         <v>8839</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="M13" s="7">
         <v>9</v>
@@ -2549,13 +2531,13 @@
         <v>10966</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2570,13 +2552,13 @@
         <v>544759</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>138</v>
+        <v>28</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H14" s="7">
         <v>519</v>
@@ -2585,13 +2567,13 @@
         <v>540301</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="M14" s="7">
         <v>1018</v>
@@ -2600,13 +2582,13 @@
         <v>1085060</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>143</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2710,7 +2692,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2725,13 +2707,13 @@
         <v>16562</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="H17" s="7">
         <v>51</v>
@@ -2740,13 +2722,13 @@
         <v>59131</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="M17" s="7">
         <v>68</v>
@@ -2755,13 +2737,13 @@
         <v>75693</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2776,13 +2758,13 @@
         <v>3361056</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="H18" s="7">
         <v>3275</v>
@@ -2791,13 +2773,13 @@
         <v>3472969</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="M18" s="7">
         <v>6473</v>
@@ -2806,13 +2788,13 @@
         <v>6834025</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2868,7 +2850,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -2887,7 +2869,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF02F9A8-7A53-4067-9A27-43E7DAF69319}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA06E3CD-4B0B-4935-B6A0-A206F97E76F9}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2904,7 +2886,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3011,10 +2993,10 @@
         <v>541634</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>36</v>
@@ -3026,10 +3008,10 @@
         <v>835953</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>36</v>
@@ -3041,10 +3023,10 @@
         <v>1377586</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>36</v>
@@ -3068,7 +3050,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -3083,7 +3065,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -3119,7 +3101,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -3134,7 +3116,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -3217,10 +3199,10 @@
         <v>2162022</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>36</v>
@@ -3229,13 +3211,13 @@
         <v>2921</v>
       </c>
       <c r="I8" s="7">
-        <v>2249520</v>
+        <v>2249521</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>36</v>
@@ -3247,10 +3229,10 @@
         <v>4411543</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>36</v>
@@ -3289,7 +3271,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -3304,7 +3286,7 @@
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3340,7 +3322,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -3355,7 +3337,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3382,7 +3364,7 @@
         <v>2921</v>
       </c>
       <c r="I11" s="7">
-        <v>2249520</v>
+        <v>2249521</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>36</v>
@@ -3423,10 +3405,10 @@
         <v>673039</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>36</v>
@@ -3438,10 +3420,10 @@
         <v>713886</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>36</v>
@@ -3453,10 +3435,10 @@
         <v>1386926</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>36</v>
@@ -3480,7 +3462,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -3495,7 +3477,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -3510,7 +3492,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3531,7 +3513,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -3546,7 +3528,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -3561,7 +3543,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3626,13 +3608,13 @@
         <v>3364</v>
       </c>
       <c r="D16" s="7">
-        <v>3376695</v>
+        <v>3376694</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>36</v>
@@ -3644,10 +3626,10 @@
         <v>3799360</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>36</v>
@@ -3656,13 +3638,13 @@
         <v>8716</v>
       </c>
       <c r="N16" s="7">
-        <v>7176055</v>
+        <v>7176054</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>36</v>
@@ -3701,22 +3683,22 @@
         <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="M17" s="7">
+        <v>0</v>
+      </c>
+      <c r="N17" s="7">
+        <v>0</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="M17" s="7">
-        <v>0</v>
-      </c>
-      <c r="N17" s="7">
-        <v>0</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3752,22 +3734,22 @@
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="M18" s="7">
+        <v>0</v>
+      </c>
+      <c r="N18" s="7">
+        <v>0</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="M18" s="7">
-        <v>0</v>
-      </c>
-      <c r="N18" s="7">
-        <v>0</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3779,7 +3761,7 @@
         <v>3364</v>
       </c>
       <c r="D19" s="7">
-        <v>3376695</v>
+        <v>3376694</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>36</v>
@@ -3809,7 +3791,7 @@
         <v>8716</v>
       </c>
       <c r="N19" s="7">
-        <v>7176055</v>
+        <v>7176054</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>36</v>
@@ -3823,7 +3805,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1407-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1407-Estudios-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{07A16463-88E2-4325-97AD-312E8D43CAFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{827045CB-5770-4E61-BB72-ED18C0539ADF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{89A1C5FA-1015-498D-88C4-562F365BC64B}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6E9CC873-6102-43F4-B6F5-38FAFDD56367}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="174">
   <si>
     <t>Población con diagnóstico de estreñimiento crónico en 2012 (Tasa respuesta: 99,95%)</t>
   </si>
@@ -97,25 +97,25 @@
     <t>0,31%</t>
   </si>
   <si>
-    <t>1,42%</t>
+    <t>1,47%</t>
   </si>
   <si>
     <t>3,35%</t>
   </si>
   <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
   </si>
   <si>
     <t>2,21%</t>
   </si>
   <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
   </si>
   <si>
     <t>No</t>
@@ -124,7 +124,7 @@
     <t>99,36%</t>
   </si>
   <si>
-    <t>98,58%</t>
+    <t>98,53%</t>
   </si>
   <si>
     <t>99,69%</t>
@@ -133,19 +133,19 @@
     <t>96,65%</t>
   </si>
   <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
   </si>
   <si>
     <t>97,79%</t>
   </si>
   <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
   </si>
   <si>
     <t>100%</t>
@@ -166,313 +166,331 @@
     <t>0,05%</t>
   </si>
   <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>99,95%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
     <t>0,46%</t>
   </si>
   <si>
-    <t>1,13%</t>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de estreñimiento crónico en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
   </si>
   <si>
     <t>0,67%</t>
   </si>
   <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
   </si>
   <si>
     <t>0,38%</t>
   </si>
   <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
   </si>
   <si>
     <t>99,54%</t>
   </si>
   <si>
-    <t>99,95%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de estreñimiento crónico en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
     <t>0,49%</t>
   </si>
   <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
   </si>
   <si>
     <t>1,67%</t>
   </si>
   <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
   </si>
   <si>
     <t>1,38%</t>
@@ -481,37 +499,31 @@
     <t>99,51%</t>
   </si>
   <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
   </si>
   <si>
     <t>98,33%</t>
   </si>
   <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
   </si>
   <si>
     <t>98,62%</t>
   </si>
   <si>
+    <t>99,13%</t>
+  </si>
+  <si>
     <t>Población con diagnóstico de estreñimiento crónico en 2023 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
-    <t>99,72%</t>
-  </si>
-  <si>
     <t>99,87%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
   </si>
   <si>
     <t>0,13%</t>
@@ -959,7 +971,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64B2F5ED-DE87-4C2E-8228-F6F77E3B5F94}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{186443F5-3F11-41EC-A0E4-29DFEE30A294}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1212,7 +1224,7 @@
         <v>2105</v>
       </c>
       <c r="N6" s="7">
-        <v>2260179</v>
+        <v>2260178</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>33</v>
@@ -1263,7 +1275,7 @@
         <v>2154</v>
       </c>
       <c r="N7" s="7">
-        <v>2311257</v>
+        <v>2311256</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>36</v>
@@ -1418,7 +1430,7 @@
         <v>3469</v>
       </c>
       <c r="N10" s="7">
-        <v>3695718</v>
+        <v>3695719</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>55</v>
@@ -1469,7 +1481,7 @@
         <v>3489</v>
       </c>
       <c r="N11" s="7">
-        <v>3718549</v>
+        <v>3718550</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>36</v>
@@ -1516,7 +1528,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -1531,7 +1543,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1546,13 +1558,13 @@
         <v>986</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H13" s="7">
         <v>6</v>
@@ -1561,13 +1573,13 @@
         <v>7016</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M13" s="7">
         <v>7</v>
@@ -1576,13 +1588,13 @@
         <v>8001</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1597,13 +1609,13 @@
         <v>480195</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H14" s="7">
         <v>406</v>
@@ -1612,13 +1624,13 @@
         <v>451615</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M14" s="7">
         <v>843</v>
@@ -1627,13 +1639,13 @@
         <v>931811</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1737,7 +1749,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1752,13 +1764,13 @@
         <v>10293</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H17" s="7">
         <v>66</v>
@@ -1767,13 +1779,13 @@
         <v>71617</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M17" s="7">
         <v>76</v>
@@ -1782,13 +1794,13 @@
         <v>81910</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1803,10 +1815,10 @@
         <v>3409489</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>49</v>
@@ -1818,28 +1830,28 @@
         <v>3478220</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M18" s="7">
         <v>6417</v>
       </c>
       <c r="N18" s="7">
-        <v>6887709</v>
+        <v>6887708</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1881,7 +1893,7 @@
         <v>6493</v>
       </c>
       <c r="N19" s="7">
-        <v>6969619</v>
+        <v>6969618</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>36</v>
@@ -1895,7 +1907,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1914,7 +1926,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{809A943B-C5B8-4ACF-9AB8-3FF2A11AA23C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D80AEDF5-5BF0-4590-9404-8BB241AF1EEA}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1931,7 +1943,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2044,7 +2056,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2059,7 +2071,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -2089,13 +2101,13 @@
         <v>9559</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>46</v>
+        <v>101</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H5" s="7">
         <v>32</v>
@@ -2104,13 +2116,13 @@
         <v>37466</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M5" s="7">
         <v>42</v>
@@ -2119,13 +2131,13 @@
         <v>47026</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2140,13 +2152,13 @@
         <v>744788</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="H6" s="7">
         <v>860</v>
@@ -2155,13 +2167,13 @@
         <v>957194</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M6" s="7">
         <v>1612</v>
@@ -2170,13 +2182,13 @@
         <v>1701981</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2295,13 +2307,13 @@
         <v>4875</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="H9" s="7">
         <v>12</v>
@@ -2310,13 +2322,13 @@
         <v>12826</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>64</v>
+        <v>116</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M9" s="7">
         <v>17</v>
@@ -2328,10 +2340,10 @@
         <v>59</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2346,10 +2358,10 @@
         <v>2071510</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>120</v>
+        <v>89</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>121</v>
@@ -2361,13 +2373,13 @@
         <v>1975474</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>74</v>
+        <v>122</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M10" s="7">
         <v>3843</v>
@@ -2376,10 +2388,10 @@
         <v>4046984</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>126</v>
@@ -2456,7 +2468,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>47</v>
+        <v>127</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -2471,7 +2483,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -2486,7 +2498,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2501,13 +2513,13 @@
         <v>2127</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>19</v>
+        <v>130</v>
       </c>
       <c r="H13" s="7">
         <v>7</v>
@@ -2516,13 +2528,13 @@
         <v>8839</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="M13" s="7">
         <v>9</v>
@@ -2531,13 +2543,13 @@
         <v>10966</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2552,13 +2564,13 @@
         <v>544759</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>28</v>
+        <v>137</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H14" s="7">
         <v>519</v>
@@ -2567,13 +2579,13 @@
         <v>540301</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="M14" s="7">
         <v>1018</v>
@@ -2582,13 +2594,13 @@
         <v>1085060</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>50</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2692,7 +2704,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2707,13 +2719,13 @@
         <v>16562</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="H17" s="7">
         <v>51</v>
@@ -2722,13 +2734,13 @@
         <v>59131</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="M17" s="7">
         <v>68</v>
@@ -2737,13 +2749,13 @@
         <v>75693</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>144</v>
+        <v>118</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>66</v>
+        <v>150</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2758,13 +2770,13 @@
         <v>3361056</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="H18" s="7">
         <v>3275</v>
@@ -2773,13 +2785,13 @@
         <v>3472969</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="M18" s="7">
         <v>6473</v>
@@ -2788,13 +2800,13 @@
         <v>6834025</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>152</v>
+        <v>123</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>75</v>
+        <v>159</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2850,7 +2862,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -2869,7 +2881,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA06E3CD-4B0B-4935-B6A0-A206F97E76F9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7545AEB-C38F-4559-990B-8550A920B043}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2886,7 +2898,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2993,10 +3005,10 @@
         <v>541634</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>36</v>
@@ -3008,10 +3020,10 @@
         <v>835953</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>36</v>
@@ -3023,7 +3035,7 @@
         <v>1377586</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>121</v>
@@ -3050,7 +3062,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -3065,7 +3077,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -3101,7 +3113,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -3116,7 +3128,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -3199,10 +3211,10 @@
         <v>2162022</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>36</v>
@@ -3214,10 +3226,10 @@
         <v>2249521</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>36</v>
@@ -3229,10 +3241,10 @@
         <v>4411543</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>36</v>
@@ -3271,7 +3283,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -3286,7 +3298,7 @@
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3322,7 +3334,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -3337,7 +3349,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3405,10 +3417,10 @@
         <v>673039</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>36</v>
@@ -3420,10 +3432,10 @@
         <v>713886</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>36</v>
@@ -3435,10 +3447,10 @@
         <v>1386926</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>36</v>
@@ -3462,7 +3474,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -3477,7 +3489,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -3492,7 +3504,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3513,7 +3525,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -3528,7 +3540,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -3543,7 +3555,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3611,10 +3623,10 @@
         <v>3376694</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>36</v>
@@ -3626,10 +3638,10 @@
         <v>3799360</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>36</v>
@@ -3641,10 +3653,10 @@
         <v>7176054</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>36</v>
@@ -3683,7 +3695,7 @@
         <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -3698,7 +3710,7 @@
         <v>12</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3734,7 +3746,7 @@
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -3749,7 +3761,7 @@
         <v>12</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3805,7 +3817,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1407-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1407-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F611ED82-DE05-4D58-A9DF-7A08FAD741FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{584C48FC-3CD4-472C-A91F-598D4508E8D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2B2D9CC7-4713-4033-872B-9CD3D68BAE44}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{C0DD7DE4-2ECD-43A7-A986-C5FF1AB3C243}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -901,7 +901,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48C8E131-E3CD-4AD5-B5FF-9AE2619846F5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28564C29-2D97-4845-A3F8-74D21CC50AB0}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1258,7 +1258,7 @@
         <v>3469</v>
       </c>
       <c r="N8" s="7">
-        <v>3695719</v>
+        <v>3695718</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1309,7 +1309,7 @@
         <v>3489</v>
       </c>
       <c r="N9" s="7">
-        <v>3718550</v>
+        <v>3718549</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1413,7 +1413,7 @@
         <v>843</v>
       </c>
       <c r="N11" s="7">
-        <v>931811</v>
+        <v>931812</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1464,7 +1464,7 @@
         <v>850</v>
       </c>
       <c r="N12" s="7">
-        <v>939812</v>
+        <v>939813</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1568,7 +1568,7 @@
         <v>6417</v>
       </c>
       <c r="N14" s="7">
-        <v>6887708</v>
+        <v>6887709</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>82</v>
@@ -1619,7 +1619,7 @@
         <v>6493</v>
       </c>
       <c r="N15" s="7">
-        <v>6969618</v>
+        <v>6969619</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1652,7 +1652,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1D970E4-2270-4D6D-87CF-70E68DB40430}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A460EAC6-3C34-43B8-A001-5E2950E8B079}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2164,7 +2164,7 @@
         <v>1018</v>
       </c>
       <c r="N11" s="7">
-        <v>1085060</v>
+        <v>1085061</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>132</v>
@@ -2215,7 +2215,7 @@
         <v>1027</v>
       </c>
       <c r="N12" s="7">
-        <v>1096026</v>
+        <v>1096027</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
